--- a/NformTester/NformTester/Keywordscripts/600.40.30.110_UsersandGroupsUserCannotChangeAlertNotifications.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.30.110_UsersandGroupsUserCannotChangeAlertNotifications.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
@@ -1260,12 +1260,12 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CH$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CH:$CH</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7833" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7833" uniqueCount="861">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3881,6 +3881,10 @@
   <si>
     <t>;Verify in user options.</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4132,95 +4136,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4241,7 +4161,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4527,8 +4447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4544,7 +4464,7 @@
     <col min="12" max="12" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>818</v>
       </c>
@@ -5454,7 +5374,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>250</v>
